--- a/report.xlsx
+++ b/report.xlsx
@@ -431,14 +431,34 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:D4"/>
+  <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="2">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Версия</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Количество за неделю</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
@@ -451,7 +471,7 @@
         </is>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +482,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>M20</t>
         </is>
       </c>
       <c r="D4" s="1" t="n">
@@ -480,14 +500,34 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:D3"/>
+  <dimension ref="B2:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="2">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Версия</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Количество за неделю</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
@@ -496,11 +536,11 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="D3" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
